--- a/Designer/Excel/LocImage.xlsx
+++ b/Designer/Excel/LocImage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\UnityLibs\Designer\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B66065B-9ABE-46CD-A44B-080C784ABF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91868759-4058-4534-BCDC-4D641C20DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>string
 PK</t>
@@ -47,7 +47,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Res/UI/Sprite/icon.png</t>
+    <t>Assets/Res/UI/Sprite/s1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextureA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/UI/Texture/t1.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1031,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,6 +1102,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A1:T1">

--- a/Designer/Excel/LocImage.xlsx
+++ b/Designer/Excel/LocImage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\UnityLibs\Designer\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91868759-4058-4534-BCDC-4D641C20DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59325B1-562C-4954-908F-16F4EAFC7D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,15 +47,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Res/UI/Sprite/s1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TextureA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Res/UI/Texture/t1.png</t>
+    <t>s1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1099,12 +1099,12 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
